--- a/PrORAM.xlsx
+++ b/PrORAM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Documents/MPC/proram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C0DAB1-7078-234D-8603-A4E66DE8255D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FA430-32C9-2345-A6D4-38C6B6ABCCBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49080" yWindow="-11920" windowWidth="28040" windowHeight="17440" xr2:uid="{C27AEDCD-1D18-D640-9F8D-DC4448B10948}"/>
+    <workbookView xWindow="-51200" yWindow="-16840" windowWidth="51200" windowHeight="28340" xr2:uid="{C27AEDCD-1D18-D640-9F8D-DC4448B10948}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>log n</t>
   </si>
@@ -154,66 +154,126 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>103.69125080108643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.30843830108643</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>143.79170227050781</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>184.05439758300781</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>224.49507141113281</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>265.52998638153076</c:v>
+                  <c:v>163.88357543945312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>306.02627849578857</c:v>
+                  <c:v>184.05447387695312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>347.07510948181152</c:v>
+                  <c:v>204.26492309570312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>387.57488059997559</c:v>
+                  <c:v>224.49514770507812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>428.0748233795166</c:v>
+                  <c:v>245.28500652313232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265.53006267547607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>285.77759075164795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>306.02635478973389</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>326.27574443817139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>347.07518577575684</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>367.32503318786621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>387.5749568939209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>407.82491874694824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>428.07489967346191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>448.87463665008545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,66 +314,126 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Sheet1!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>123.09248352050781</c:v>
+                  <c:v>49.769375801086426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>235.49183940887451</c:v>
+                  <c:v>81.410000801086426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>388.03523826599121</c:v>
+                  <c:v>123.09255981445312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>581.53939437866211</c:v>
+                  <c:v>174.03396606445312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>816.07104969024658</c:v>
+                  <c:v>235.49191570281982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1091.0971508026123</c:v>
+                  <c:v>306.99576377868652</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1406.6218481063843</c:v>
+                  <c:v>388.03531455993652</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1763.195948600769</c:v>
+                  <c:v>479.72983646392822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>581.53947067260742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>694.01890754699707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>816.07112598419189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>948.24710845947266</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1091.0972270965576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1243.5222787857056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1406.6219244003296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1579.8464937210083</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1763.1960248947144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1956.6705369949341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,7 +735,1369 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PrORAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.7233638763427734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9505290985107422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4180908203125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9750938415527344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3754463195800781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.996307373046875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2921085357666016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8214149475097656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4591522216796875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8674774169921875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.377216339111328</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.037826538085938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.403820037841797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.775611877441406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.943958282470703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.937305450439453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.914989471435547</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.00634765625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-774A-DC4E-8C26-2CB112505218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.0022182464599609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8619747161865234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1985530853271484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9936161041259766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.323165893554688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.547847747802734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.87872314453125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.817279815673828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.821567535400391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.955646514892578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.64385986328125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.752803802490234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.564483642578125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.795211791992188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.091270446777344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110.46314239501953</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156.96144104003906</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>192.14534759521484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-774A-DC4E-8C26-2CB112505218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="83704959"/>
+        <c:axId val="83347791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83704959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83347791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83347791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LAN</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Wall-Clock time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> per Access (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83704959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PrORAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>268574.34116330236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>253130.65036705509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184566.85817280613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167361.38820878038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156851.76376261382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142932.54236548822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137134.54690027767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101818.32305675583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105717.71936475163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101343.023930104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96364.956393078042</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90597.546224295831</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69426.027079815933</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78274.137441961153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71715.647719423039</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66946.478621455797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67046.644713705682</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52614.001284521517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E41-2B46-88FB-7E111FA0F529}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>249861.43643828502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205677.74584898443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138916.80566172468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111189.98058425383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88314.523464609374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64317.583772411381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55932.405905948624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48037.015827931376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40287.544232402128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30343.813754286457</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25224.587198337245</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18603.68072471919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13973.411797315594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11655.662118119933</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10406.772595996388</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9052.7933419091951</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6370.9914573536016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5204.393509993597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E41-2B46-88FB-7E111FA0F529}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="83704959"/>
+        <c:axId val="83347791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83704959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83347791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83347791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accesses per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83704959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1171,20 +2653,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1204,6 +3718,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EFFCB0-AF7C-C842-94F6-58C656D6A40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A3798D-0962-8343-8334-46FCAB40D61B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1509,19 +4099,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F59B791-E152-CD41-ACA1-436CE014A7E9}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1537,173 +4129,781 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>108728157</v>
+      </c>
+      <c r="C2">
+        <v>52186973</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D19" si="0">B2/$A$33</f>
+        <v>103.69125080108643</v>
+      </c>
+      <c r="E2">
+        <f>C2/$A$33</f>
+        <v>49.769375801086426</v>
+      </c>
+      <c r="H2">
+        <v>3.9042300000000001</v>
+      </c>
+      <c r="I2">
+        <v>4.1966299999999999</v>
+      </c>
+      <c r="J2">
+        <f>H2/$A$33*1000000</f>
+        <v>3.7233638763427734</v>
+      </c>
+      <c r="K2">
+        <f>I2/$A$33*1000000</f>
+        <v>4.0022182464599609</v>
+      </c>
+      <c r="L2">
+        <f>$A$33/H2</f>
+        <v>268574.34116330236</v>
+      </c>
+      <c r="M2">
+        <f>$A$33/I2</f>
+        <v>249861.43643828502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>129298269</v>
+      </c>
+      <c r="C3">
+        <v>85364573</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>123.30843830108643</v>
+      </c>
+      <c r="E3">
+        <f>C3/$A$33</f>
+        <v>81.410000801086426</v>
+      </c>
+      <c r="H3">
+        <v>4.1424300000000001</v>
+      </c>
+      <c r="I3">
+        <v>5.0981500000000004</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J19" si="1">H3/$A$33*1000000</f>
+        <v>3.9505290985107422</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="2">I3/$A$33*1000000</f>
+        <v>4.8619747161865234</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L19" si="3">$A$33/H3</f>
+        <v>253130.65036705509</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M19" si="4">$A$33/I3</f>
+        <v>205677.74584898443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A19" si="5">A3+1</f>
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>150776528</v>
       </c>
-      <c r="C2">
-        <v>129071824</v>
-      </c>
-      <c r="D2">
-        <f>B2/$A$14</f>
+      <c r="C4">
+        <v>129071904</v>
+      </c>
+      <c r="D4">
+        <f>B4/$A$33</f>
         <v>143.79170227050781</v>
       </c>
-      <c r="E2">
-        <f>C2/$A$14</f>
-        <v>123.09248352050781</v>
+      <c r="E4">
+        <f>C4/$A$33</f>
+        <v>123.09255981445312</v>
+      </c>
+      <c r="H4">
+        <v>5.6812800000000001</v>
+      </c>
+      <c r="I4">
+        <v>7.5482300000000002</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>5.4180908203125</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>7.1985530853271484</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>184566.85817280613</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>138916.80566172468</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f>A2+2</f>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>171844384</v>
+      </c>
+      <c r="C5">
+        <v>182487840</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D19" si="6">B5/$A$33</f>
+        <v>163.88357543945312</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E19" si="7">C5/$A$33</f>
+        <v>174.03396606445312</v>
+      </c>
+      <c r="H5">
+        <v>6.2653400000000001</v>
+      </c>
+      <c r="I5">
+        <v>9.4304900000000007</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>5.9750938415527344</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>8.9936161041259766</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>167361.38820878038</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>111189.98058425383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>192995024</v>
-      </c>
-      <c r="C3">
-        <v>246931091</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:E9" si="0">B3/$A$14</f>
-        <v>184.05439758300781</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>235.49183940887451</v>
+      <c r="B6">
+        <v>192995104</v>
+      </c>
+      <c r="C6">
+        <v>246931171</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="6"/>
+        <v>184.05447387695312</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="7"/>
+        <v>235.49191570281982</v>
+      </c>
+      <c r="H6">
+        <v>6.6851399999999996</v>
+      </c>
+      <c r="I6">
+        <v>11.873200000000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>6.3754463195800781</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>11.323165893554688</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>156851.76376261382</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>88314.523464609374</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" ref="A4:A9" si="1">A3+2</f>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>214187296</v>
+      </c>
+      <c r="C7">
+        <v>321908390</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="6"/>
+        <v>204.26492309570312</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="7"/>
+        <v>306.99576377868652</v>
+      </c>
+      <c r="H7">
+        <v>7.3361599999999996</v>
+      </c>
+      <c r="I7">
+        <v>16.303100000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>6.996307373046875</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>15.547847747802734</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>142932.54236548822</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>64317.583772411381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>235400144</v>
-      </c>
-      <c r="C4">
-        <v>406884438</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>224.49507141113281</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>388.03523826599121</v>
+      <c r="B8">
+        <v>235400224</v>
+      </c>
+      <c r="C8">
+        <v>406884518</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="6"/>
+        <v>224.49514770507812</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="7"/>
+        <v>388.03531455993652</v>
+      </c>
+      <c r="H8">
+        <v>7.6463299999999998</v>
+      </c>
+      <c r="I8">
+        <v>18.747199999999999</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>7.2921085357666016</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>17.87872314453125</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>137134.54690027767</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>55932.405905948624</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>257199971</v>
+      </c>
+      <c r="C9">
+        <v>503033193</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="6"/>
+        <v>245.28500652313232</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="7"/>
+        <v>479.72983646392822</v>
+      </c>
+      <c r="H9">
+        <v>10.298500000000001</v>
+      </c>
+      <c r="I9">
+        <v>21.828499999999998</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
+        <v>9.8214149475097656</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>20.817279815673828</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>101818.32305675583</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>48037.015827931376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>278428371</v>
-      </c>
-      <c r="C5">
-        <v>609788252</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>265.52998638153076</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>581.53939437866211</v>
+      <c r="B10">
+        <v>278428451</v>
+      </c>
+      <c r="C10">
+        <v>609788332</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="6"/>
+        <v>265.53006267547607</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="7"/>
+        <v>581.53947067260742</v>
+      </c>
+      <c r="H10">
+        <v>9.9186399999999999</v>
+      </c>
+      <c r="I10">
+        <v>26.0273</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>9.4591522216796875</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>24.821567535400391</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>105717.71936475163</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>40287.544232402128</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>299659523</v>
+      </c>
+      <c r="C11">
+        <v>727731570</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="6"/>
+        <v>285.77759075164795</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>694.01890754699707</v>
+      </c>
+      <c r="H11">
+        <v>10.3468</v>
+      </c>
+      <c r="I11">
+        <v>34.5565</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
+        <v>9.8674774169921875</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>32.955646514892578</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>101343.023930104</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>30343.813754286457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>320891811</v>
-      </c>
-      <c r="C6">
-        <v>855712517</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>306.02627849578857</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>816.07104969024658</v>
+      <c r="B12">
+        <v>320891891</v>
+      </c>
+      <c r="C12">
+        <v>855712597</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="6"/>
+        <v>306.02635478973389</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="7"/>
+        <v>816.07112598419189</v>
+      </c>
+      <c r="H12">
+        <v>10.8813</v>
+      </c>
+      <c r="I12">
+        <v>41.569600000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>10.377216339111328</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>39.64385986328125</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>96364.956393078042</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>25224.587198337245</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>342124915</v>
+      </c>
+      <c r="C13">
+        <v>994309160</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="6"/>
+        <v>326.27574443817139</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="7"/>
+        <v>948.24710845947266</v>
+      </c>
+      <c r="H13">
+        <v>11.574</v>
+      </c>
+      <c r="I13">
+        <v>56.363900000000001</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
+        <v>11.037826538085938</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>53.752803802490234</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>90597.546224295831</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>18603.68072471919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>363934630</v>
-      </c>
-      <c r="C7">
-        <v>1144098286</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>347.07510948181152</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1091.0971508026123</v>
+      <c r="B14">
+        <v>363934710</v>
+      </c>
+      <c r="C14">
+        <v>1144098366</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="6"/>
+        <v>347.07518577575684</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="7"/>
+        <v>1091.0972270965576</v>
+      </c>
+      <c r="H14">
+        <v>15.1035</v>
+      </c>
+      <c r="I14">
+        <v>75.040800000000004</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>14.403820037841797</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>71.564483642578125</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>69426.027079815933</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>13973.411797315594</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>385168214</v>
+      </c>
+      <c r="C15">
+        <v>1303927617</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="6"/>
+        <v>367.32503318786621</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>1243.5222787857056</v>
+      </c>
+      <c r="H15">
+        <v>13.3962</v>
+      </c>
+      <c r="I15">
+        <v>89.962800000000001</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
+        <v>12.775611877441406</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>85.795211791992188</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>78274.137441961153</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>11655.662118119933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>406401718</v>
-      </c>
-      <c r="C8">
-        <v>1474949911</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>387.57488059997559</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1406.6218481063843</v>
+      <c r="B16">
+        <v>406401798</v>
+      </c>
+      <c r="C16">
+        <v>1474949991</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>387.5749568939209</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>1406.6219244003296</v>
+      </c>
+      <c r="H16">
+        <v>14.6213</v>
+      </c>
+      <c r="I16">
+        <v>100.759</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>13.943958282470703</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>96.091270446777344</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>71715.647719423039</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>10406.772595996388</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>427635422</v>
+      </c>
+      <c r="C17">
+        <v>1656589117</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>407.82491874694824</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>1579.8464937210083</v>
+      </c>
+      <c r="H17">
+        <v>15.6629</v>
+      </c>
+      <c r="I17">
+        <v>115.82899999999999</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="1"/>
+        <v>14.937305450439453</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>110.46314239501953</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>66946.478621455797</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>9052.7933419091951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B9">
-        <v>448868986</v>
-      </c>
-      <c r="C9">
-        <v>1848844955</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>428.0748233795166</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1763.195948600769</v>
+      <c r="B18">
+        <v>448869066</v>
+      </c>
+      <c r="C18">
+        <v>1848845035</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>428.07489967346191</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>1763.1960248947144</v>
+      </c>
+      <c r="H18">
+        <v>15.6395</v>
+      </c>
+      <c r="I18">
+        <v>164.58600000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>14.914989471435547</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>156.96144104003906</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>67046.644713705682</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>6370.9914573536016</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>470679171</v>
+      </c>
+      <c r="C19">
+        <v>2051717765</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>448.87463665008545</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>1956.6705369949341</v>
+      </c>
+      <c r="H19">
+        <v>19.929600000000001</v>
+      </c>
+      <c r="I19">
+        <v>201.47900000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>19.00634765625</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>192.14534759521484</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>52614.001284521517</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>5204.393509993597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <f>2^20</f>
         <v>1048576</v>
       </c>

--- a/PrORAM.xlsx
+++ b/PrORAM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Documents/MPC/proram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FA430-32C9-2345-A6D4-38C6B6ABCCBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F79C54-E1B2-8346-8B07-8BAD827C1478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-16840" windowWidth="51200" windowHeight="28340" xr2:uid="{C27AEDCD-1D18-D640-9F8D-DC4448B10948}"/>
+    <workbookView xWindow="-48180" yWindow="-16840" windowWidth="40700" windowHeight="23440" xr2:uid="{C27AEDCD-1D18-D640-9F8D-DC4448B10948}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -482,7 +482,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>log N</a:t>
+                  <a:t>log n</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -500,7 +500,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -535,7 +535,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -552,6 +552,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -582,7 +583,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -611,7 +612,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -640,7 +641,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -679,7 +680,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -718,7 +719,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1600">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1100,7 +1101,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1111,7 +1112,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>log N</a:t>
+                  <a:t>log n</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1129,7 +1130,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1164,7 +1165,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1181,6 +1182,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1211,7 +1214,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1222,31 +1225,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>LAN</a:t>
+                  <a:t>LAN Wall-Clock time per Access (</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Wall-Clock time</a:t>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>μ</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t> per Access (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>S</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>)</a:t>
+                  <a:t>S)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1264,7 +1251,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1293,7 +1280,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1332,7 +1319,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1371,7 +1358,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1600">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1753,7 +1740,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1764,7 +1751,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>log N</a:t>
+                  <a:t>log n</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1782,7 +1769,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1817,7 +1804,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1834,6 +1821,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1864,7 +1852,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1893,7 +1881,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1922,7 +1910,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1961,7 +1949,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2000,7 +1988,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1600">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -3689,16 +3677,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3725,16 +3713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4102,7 +4090,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4153,12 +4141,20 @@
         <v>52186973</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D19" si="0">B2/$A$33</f>
+        <f t="shared" ref="D2:D3" si="0">B2/$A$33</f>
         <v>103.69125080108643</v>
       </c>
       <c r="E2">
         <f>C2/$A$33</f>
         <v>49.769375801086426</v>
+      </c>
+      <c r="F2">
+        <f>2*A2 * 10</f>
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <f>F2-D2</f>
+        <v>-43.691250801086426</v>
       </c>
       <c r="H2">
         <v>3.9042300000000001</v>
@@ -4202,6 +4198,14 @@
         <f>C3/$A$33</f>
         <v>81.410000801086426</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="1">2*A3 * 10</f>
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G19" si="2">F3-D3</f>
+        <v>-43.308438301086426</v>
+      </c>
       <c r="H3">
         <v>4.1424300000000001</v>
       </c>
@@ -4209,25 +4213,25 @@
         <v>5.0981500000000004</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J19" si="1">H3/$A$33*1000000</f>
+        <f t="shared" ref="J3:J19" si="3">H3/$A$33*1000000</f>
         <v>3.9505290985107422</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K19" si="2">I3/$A$33*1000000</f>
+        <f t="shared" ref="K3:K19" si="4">I3/$A$33*1000000</f>
         <v>4.8619747161865234</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L19" si="3">$A$33/H3</f>
+        <f t="shared" ref="L3:L19" si="5">$A$33/H3</f>
         <v>253130.65036705509</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M19" si="4">$A$33/I3</f>
+        <f t="shared" ref="M3:M19" si="6">$A$33/I3</f>
         <v>205677.74584898443</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A19" si="5">A3+1</f>
+        <f t="shared" ref="A4:A19" si="7">A3+1</f>
         <v>5</v>
       </c>
       <c r="B4">
@@ -4244,6 +4248,14 @@
         <f>C4/$A$33</f>
         <v>123.09255981445312</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>-43.791702270507812</v>
+      </c>
       <c r="H4">
         <v>5.6812800000000001</v>
       </c>
@@ -4251,25 +4263,25 @@
         <v>7.5482300000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4180908203125</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1985530853271484</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>184566.85817280613</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>138916.80566172468</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B5">
@@ -4279,12 +4291,20 @@
         <v>182487840</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D19" si="6">B5/$A$33</f>
+        <f t="shared" ref="D5:D19" si="8">B5/$A$33</f>
         <v>163.88357543945312</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E19" si="7">C5/$A$33</f>
+        <f t="shared" ref="E5:E19" si="9">C5/$A$33</f>
         <v>174.03396606445312</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>-43.883575439453125</v>
       </c>
       <c r="H5">
         <v>6.2653400000000001</v>
@@ -4293,25 +4313,25 @@
         <v>9.4304900000000007</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9750938415527344</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.9936161041259766</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>167361.38820878038</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>111189.98058425383</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="B6">
@@ -4321,12 +4341,20 @@
         <v>246931171</v>
       </c>
       <c r="D6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>184.05447387695312</v>
       </c>
       <c r="E6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>235.49191570281982</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>-44.054473876953125</v>
       </c>
       <c r="H6">
         <v>6.6851399999999996</v>
@@ -4335,25 +4363,25 @@
         <v>11.873200000000001</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3754463195800781</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.323165893554688</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>156851.76376261382</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>88314.523464609374</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="B7">
@@ -4363,12 +4391,20 @@
         <v>321908390</v>
       </c>
       <c r="D7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>204.26492309570312</v>
       </c>
       <c r="E7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>306.99576377868652</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>-44.264923095703125</v>
       </c>
       <c r="H7">
         <v>7.3361599999999996</v>
@@ -4377,25 +4413,25 @@
         <v>16.303100000000001</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.996307373046875</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.547847747802734</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>142932.54236548822</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>64317.583772411381</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B8">
@@ -4405,12 +4441,20 @@
         <v>406884518</v>
       </c>
       <c r="D8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>224.49514770507812</v>
       </c>
       <c r="E8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>388.03531455993652</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>-44.495147705078125</v>
       </c>
       <c r="H8">
         <v>7.6463299999999998</v>
@@ -4419,25 +4463,25 @@
         <v>18.747199999999999</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2921085357666016</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.87872314453125</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>137134.54690027767</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55932.405905948624</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B9">
@@ -4447,12 +4491,20 @@
         <v>503033193</v>
       </c>
       <c r="D9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>245.28500652313232</v>
       </c>
       <c r="E9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>479.72983646392822</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-45.285006523132324</v>
       </c>
       <c r="H9">
         <v>10.298500000000001</v>
@@ -4461,25 +4513,25 @@
         <v>21.828499999999998</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.8214149475097656</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.817279815673828</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>101818.32305675583</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>48037.015827931376</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="B10">
@@ -4489,12 +4541,20 @@
         <v>609788332</v>
       </c>
       <c r="D10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>265.53006267547607</v>
       </c>
       <c r="E10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>581.53947067260742</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>-45.530062675476074</v>
       </c>
       <c r="H10">
         <v>9.9186399999999999</v>
@@ -4503,25 +4563,25 @@
         <v>26.0273</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.4591522216796875</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24.821567535400391</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>105717.71936475163</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40287.544232402128</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="B11">
@@ -4531,12 +4591,20 @@
         <v>727731570</v>
       </c>
       <c r="D11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>285.77759075164795</v>
       </c>
       <c r="E11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>694.01890754699707</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>-45.777590751647949</v>
       </c>
       <c r="H11">
         <v>10.3468</v>
@@ -4545,25 +4613,25 @@
         <v>34.5565</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.8674774169921875</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.955646514892578</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>101343.023930104</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30343.813754286457</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="B12">
@@ -4573,12 +4641,20 @@
         <v>855712597</v>
       </c>
       <c r="D12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>306.02635478973389</v>
       </c>
       <c r="E12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>816.07112598419189</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>-46.026354789733887</v>
       </c>
       <c r="H12">
         <v>10.8813</v>
@@ -4587,25 +4663,25 @@
         <v>41.569600000000001</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.377216339111328</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39.64385986328125</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96364.956393078042</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25224.587198337245</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="B13">
@@ -4615,12 +4691,20 @@
         <v>994309160</v>
       </c>
       <c r="D13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326.27574443817139</v>
       </c>
       <c r="E13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>948.24710845947266</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-46.275744438171387</v>
       </c>
       <c r="H13">
         <v>11.574</v>
@@ -4629,25 +4713,25 @@
         <v>56.363900000000001</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.037826538085938</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.752803802490234</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90597.546224295831</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18603.68072471919</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="B14">
@@ -4657,12 +4741,20 @@
         <v>1144098366</v>
       </c>
       <c r="D14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>347.07518577575684</v>
       </c>
       <c r="E14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1091.0972270965576</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>-47.075185775756836</v>
       </c>
       <c r="H14">
         <v>15.1035</v>
@@ -4671,25 +4763,25 @@
         <v>75.040800000000004</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.403820037841797</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>71.564483642578125</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69426.027079815933</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13973.411797315594</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="B15">
@@ -4699,12 +4791,20 @@
         <v>1303927617</v>
       </c>
       <c r="D15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>367.32503318786621</v>
       </c>
       <c r="E15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1243.5222787857056</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>-47.325033187866211</v>
       </c>
       <c r="H15">
         <v>13.3962</v>
@@ -4713,25 +4813,25 @@
         <v>89.962800000000001</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.775611877441406</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>85.795211791992188</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78274.137441961153</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11655.662118119933</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="B16">
@@ -4741,12 +4841,20 @@
         <v>1474949991</v>
       </c>
       <c r="D16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>387.5749568939209</v>
       </c>
       <c r="E16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1406.6219244003296</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>-47.574956893920898</v>
       </c>
       <c r="H16">
         <v>14.6213</v>
@@ -4755,25 +4863,25 @@
         <v>100.759</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.943958282470703</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>96.091270446777344</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71715.647719423039</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10406.772595996388</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="B17">
@@ -4783,12 +4891,20 @@
         <v>1656589117</v>
       </c>
       <c r="D17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>407.82491874694824</v>
       </c>
       <c r="E17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1579.8464937210083</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>-47.824918746948242</v>
       </c>
       <c r="H17">
         <v>15.6629</v>
@@ -4797,25 +4913,25 @@
         <v>115.82899999999999</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.937305450439453</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110.46314239501953</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66946.478621455797</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9052.7933419091951</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="B18">
@@ -4825,12 +4941,20 @@
         <v>1848845035</v>
       </c>
       <c r="D18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>428.07489967346191</v>
       </c>
       <c r="E18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1763.1960248947144</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>-48.074899673461914</v>
       </c>
       <c r="H18">
         <v>15.6395</v>
@@ -4839,25 +4963,25 @@
         <v>164.58600000000001</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.914989471435547</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>156.96144104003906</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67046.644713705682</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6370.9914573536016</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="B19">
@@ -4867,12 +4991,20 @@
         <v>2051717765</v>
       </c>
       <c r="D19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>448.87463665008545</v>
       </c>
       <c r="E19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1956.6705369949341</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>-48.874636650085449</v>
       </c>
       <c r="H19">
         <v>19.929600000000001</v>
@@ -4881,20 +5013,32 @@
         <v>201.47900000000001</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.00634765625</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>192.14534759521484</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52614.001284521517</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5204.393509993597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f>E19/D19</f>
+        <v>4.359057913357292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f>I19/J19</f>
+        <v>10.600616364804111</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
